--- a/TemporaryFileStorage/DummyBatchCreation.xlsx
+++ b/TemporaryFileStorage/DummyBatchCreation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Percipio_Email</t>
+  </si>
+  <si>
     <t>Password</t>
   </si>
   <si>
@@ -37,6 +40,9 @@
     <t>simon@experionglobal.com</t>
   </si>
   <si>
+    <t>a.nehra@experionglobal.com</t>
+  </si>
+  <si>
     <t>Nehra@explearning</t>
   </si>
   <si>
@@ -46,6 +52,9 @@
     <t>chris@experionglobal.com</t>
   </si>
   <si>
+    <t>b.aravind@experionglobal.com</t>
+  </si>
+  <si>
     <t>Aravind@explearning</t>
   </si>
   <si>
@@ -55,6 +64,9 @@
     <t>warner@experionglobal.com</t>
   </si>
   <si>
+    <t>b.lara@experionglobal.com</t>
+  </si>
+  <si>
     <t>Lara@explearning</t>
   </si>
   <si>
@@ -64,6 +76,9 @@
     <t>maxwell@experionglobal.com</t>
   </si>
   <si>
+    <t>bs.akshara@experionglobal.com</t>
+  </si>
+  <si>
     <t>Akshara@explearning</t>
   </si>
   <si>
@@ -73,6 +88,9 @@
     <t>finch@experionglobal.com</t>
   </si>
   <si>
+    <t>c.devadas@experionglobal.com</t>
+  </si>
+  <si>
     <t>Devadas@explearning</t>
   </si>
   <si>
@@ -82,6 +100,9 @@
     <t>steyn@experionglobal.com</t>
   </si>
   <si>
+    <t>b.sreerag@experionglobal.com</t>
+  </si>
+  <si>
     <t>Sreerag@explearning</t>
   </si>
   <si>
@@ -89,6 +110,9 @@
   </si>
   <si>
     <t>sanju@experionglobal.com</t>
+  </si>
+  <si>
+    <t>b.meenu@experionglobal.com</t>
   </si>
   <si>
     <t>Meenu@explearning</t>
@@ -99,7 +123,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,12 +141,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -154,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -163,9 +181,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -473,16 +488,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="32.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="41.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="24.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="32.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="41.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -498,103 +514,127 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
